--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.569613</v>
+        <v>80.87054666666667</v>
       </c>
       <c r="H2">
-        <v>196.708839</v>
+        <v>242.61164</v>
       </c>
       <c r="I2">
-        <v>0.6815983651189281</v>
+        <v>0.7161501349062054</v>
       </c>
       <c r="J2">
-        <v>0.681598365118928</v>
+        <v>0.7161501349062055</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.396733</v>
       </c>
       <c r="O2">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="P2">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="Q2">
-        <v>8.671209758109667</v>
+        <v>10.69467153023555</v>
       </c>
       <c r="R2">
-        <v>78.040887822987</v>
+        <v>96.25204377212</v>
       </c>
       <c r="S2">
-        <v>0.00873450054911834</v>
+        <v>0.008051798951168865</v>
       </c>
       <c r="T2">
-        <v>0.008734500549118339</v>
+        <v>0.008051798951168867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.569613</v>
+        <v>80.87054666666667</v>
       </c>
       <c r="H3">
-        <v>196.708839</v>
+        <v>242.61164</v>
       </c>
       <c r="I3">
-        <v>0.6815983651189281</v>
+        <v>0.7161501349062054</v>
       </c>
       <c r="J3">
-        <v>0.681598365118928</v>
+        <v>0.7161501349062055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.18746666666667</v>
+        <v>11.62994666666667</v>
       </c>
       <c r="N3">
-        <v>30.5624</v>
+        <v>34.88984</v>
       </c>
       <c r="O3">
-        <v>0.9871852677528148</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="P3">
-        <v>0.9871852677528146</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="Q3">
-        <v>667.9882467837334</v>
+        <v>940.5201446375112</v>
       </c>
       <c r="R3">
-        <v>6011.894221053601</v>
+        <v>8464.681301737599</v>
       </c>
       <c r="S3">
-        <v>0.6728638645698098</v>
+        <v>0.7080983359550366</v>
       </c>
       <c r="T3">
-        <v>0.6728638645698096</v>
+        <v>0.7080983359550367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>13.68487</v>
       </c>
       <c r="I4">
-        <v>0.04741823024467683</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="J4">
-        <v>0.04741823024467683</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.396733</v>
       </c>
       <c r="O4">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="P4">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="Q4">
         <v>0.6032488366344444</v>
@@ -697,10 +697,10 @@
         <v>5.42923952971</v>
       </c>
       <c r="S4">
-        <v>0.0006076519242209196</v>
+        <v>0.0004541736823215994</v>
       </c>
       <c r="T4">
-        <v>0.0006076519242209196</v>
+        <v>0.0004541736823215996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>13.68487</v>
       </c>
       <c r="I5">
-        <v>0.04741823024467683</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="J5">
-        <v>0.04741823024467683</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.18746666666667</v>
+        <v>11.62994666666667</v>
       </c>
       <c r="N5">
-        <v>30.5624</v>
+        <v>34.88984</v>
       </c>
       <c r="O5">
-        <v>0.9871852677528148</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="P5">
-        <v>0.9871852677528146</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="Q5">
-        <v>46.47138565422222</v>
+        <v>53.05143608008889</v>
       </c>
       <c r="R5">
-        <v>418.242470888</v>
+        <v>477.4629247208</v>
       </c>
       <c r="S5">
-        <v>0.04681057832045591</v>
+        <v>0.03994133865448913</v>
       </c>
       <c r="T5">
-        <v>0.0468105783204559</v>
+        <v>0.03994133865448914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.456719</v>
+        <v>27.01376833333333</v>
       </c>
       <c r="H6">
-        <v>76.37015699999999</v>
+        <v>81.04130499999999</v>
       </c>
       <c r="I6">
-        <v>0.2646234628789398</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="J6">
-        <v>0.2646234628789398</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.396733</v>
       </c>
       <c r="O6">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="P6">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="Q6">
-        <v>3.366506833008999</v>
+        <v>3.572417784062777</v>
       </c>
       <c r="R6">
-        <v>30.298561497081</v>
+        <v>32.151760056565</v>
       </c>
       <c r="S6">
-        <v>0.003391078823116604</v>
+        <v>0.002689600113994349</v>
       </c>
       <c r="T6">
-        <v>0.003391078823116604</v>
+        <v>0.002689600113994349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.456719</v>
+        <v>27.01376833333333</v>
       </c>
       <c r="H7">
-        <v>76.37015699999999</v>
+        <v>81.04130499999999</v>
       </c>
       <c r="I7">
-        <v>0.2646234628789398</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="J7">
-        <v>0.2646234628789398</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.18746666666667</v>
+        <v>11.62994666666667</v>
       </c>
       <c r="N7">
-        <v>30.5624</v>
+        <v>34.88984</v>
       </c>
       <c r="O7">
-        <v>0.9871852677528148</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="P7">
-        <v>0.9871852677528146</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="Q7">
-        <v>259.3394762552</v>
+        <v>314.1686849823556</v>
       </c>
       <c r="R7">
-        <v>2334.0552862968</v>
+        <v>2827.5181648412</v>
       </c>
       <c r="S7">
-        <v>0.2612323840558233</v>
+        <v>0.236531162371783</v>
       </c>
       <c r="T7">
-        <v>0.2612323840558232</v>
+        <v>0.2365311623717831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6118250000000001</v>
+        <v>0.4780740000000001</v>
       </c>
       <c r="H8">
-        <v>1.835475</v>
+        <v>1.434222</v>
       </c>
       <c r="I8">
-        <v>0.006359941757455366</v>
+        <v>0.004233590271206475</v>
       </c>
       <c r="J8">
-        <v>0.006359941757455366</v>
+        <v>0.004233590271206476</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.396733</v>
       </c>
       <c r="O8">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="P8">
-        <v>0.01281473224718535</v>
+        <v>0.01124317172993818</v>
       </c>
       <c r="Q8">
-        <v>0.08091038924166667</v>
+        <v>0.063222577414</v>
       </c>
       <c r="R8">
-        <v>0.7281935031750001</v>
+        <v>0.5690031967260001</v>
       </c>
       <c r="S8">
-        <v>8.150095072948391E-05</v>
+        <v>4.759898245336997E-05</v>
       </c>
       <c r="T8">
-        <v>8.150095072948391E-05</v>
+        <v>4.759898245336999E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6118250000000001</v>
+        <v>0.4780740000000001</v>
       </c>
       <c r="H9">
-        <v>1.835475</v>
+        <v>1.434222</v>
       </c>
       <c r="I9">
-        <v>0.006359941757455366</v>
+        <v>0.004233590271206475</v>
       </c>
       <c r="J9">
-        <v>0.006359941757455366</v>
+        <v>0.004233590271206476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.18746666666667</v>
+        <v>11.62994666666667</v>
       </c>
       <c r="N9">
-        <v>30.5624</v>
+        <v>34.88984</v>
       </c>
       <c r="O9">
-        <v>0.9871852677528148</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="P9">
-        <v>0.9871852677528146</v>
+        <v>0.9887568282700618</v>
       </c>
       <c r="Q9">
-        <v>6.232946793333334</v>
+        <v>5.559975122720001</v>
       </c>
       <c r="R9">
-        <v>56.09652114000001</v>
+        <v>50.03977610448</v>
       </c>
       <c r="S9">
-        <v>0.006278440806725883</v>
+        <v>0.004185991288753106</v>
       </c>
       <c r="T9">
-        <v>0.006278440806725881</v>
+        <v>0.004185991288753107</v>
       </c>
     </row>
   </sheetData>
